--- a/Product_Boom.xlsx
+++ b/Product_Boom.xlsx
@@ -16,19 +16,19 @@
     <t xml:space="preserve">Product Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Lohith</t>
+    <t xml:space="preserve">wdaw</t>
   </si>
   <si>
     <t xml:space="preserve">Functional Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">wrwr</t>
+    <t xml:space="preserve">dawdaw</t>
   </si>
   <si>
     <t xml:space="preserve">Declarations</t>
   </si>
   <si>
-    <t xml:space="preserve">wr</t>
+    <t xml:space="preserve">awdawdw</t>
   </si>
   <si>
     <t xml:space="preserve">Allocation Applied?</t>
@@ -428,7 +428,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>241.504</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -535,7 +535,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>0.0</v>
+        <v>41.04</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
